--- a/Critical Path Calculation/Critical Path calculation.xlsx
+++ b/Critical Path Calculation/Critical Path calculation.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\PM4Success\PRINCE2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46b11371e31da655/Desktop/Critical Path Calculation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EF2062-E933-42BD-9E9C-9914B7B9726E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{93EF2062-E933-42BD-9E9C-9914B7B9726E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06BDA335-30ED-40D8-986B-13C407126503}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{737F1FB3-0BB6-4027-A67D-C94484C4BCA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Construction" sheetId="1" r:id="rId1"/>
-    <sheet name="Oil and Gas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>Construction Project</t>
   </si>
@@ -145,18 +144,6 @@
   </si>
   <si>
     <t>Finish</t>
-  </si>
-  <si>
-    <t>Oil and Gas Industrial Project</t>
-  </si>
-  <si>
-    <t>E, F</t>
-  </si>
-  <si>
-    <t>I, K</t>
-  </si>
-  <si>
-    <t>G, L</t>
   </si>
 </sst>
 </file>
@@ -288,23 +275,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1572,1336 +1559,6 @@
         <a:xfrm flipV="1">
           <a:off x="23400426" y="7714574"/>
           <a:ext cx="8457659" cy="1513192"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>81064</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>27021</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>526915</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>40532</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{361A057F-72CB-4B97-8F56-09DE766EB34E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1300264" y="7761321"/>
-          <a:ext cx="445851" cy="13511"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>94577</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>81066</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>13804</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4684AE70-E084-4BF4-9836-AC8F9213969F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4001207" y="7618240"/>
-          <a:ext cx="526619" cy="2514151"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>94576</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>94284</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>540427</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>107795</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175A9505-E07E-4598-9A11-EC3520D8EFE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11289902" y="6554719"/>
-          <a:ext cx="445851" cy="13511"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>94574</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>94574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>594468</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>67553</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2719438D-8455-4D3F-BEEB-6A6A001A2996}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4018874" y="6723974"/>
-          <a:ext cx="499894" cy="1077879"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>66668</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>121890</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>526029</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>121890</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D331B902-E740-479F-A573-1D8507E5EE3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11261994" y="5505586"/>
-          <a:ext cx="459361" cy="1076739"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>108673</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>94580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>554524</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>108091</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFBBF6B9-E949-4E0D-AEAB-7F6A59B890BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13733564" y="6555015"/>
-          <a:ext cx="445851" cy="13511"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>80488</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>108075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>512829</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>135097</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40003FA-6268-4A4C-BBB7-926429DDCD65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13705379" y="6568510"/>
-          <a:ext cx="432341" cy="1103761"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>27226</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>110434</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>579783</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>118732</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A92722E-1F80-45AE-9EE9-F3559F6092BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8792987" y="5494130"/>
-          <a:ext cx="2982122" cy="8298"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>55233</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>175638</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>595659</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>94575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17463994-0416-40E5-9373-AD6220BD6E62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6391429" y="5379877"/>
-          <a:ext cx="540426" cy="1175133"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>67259</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>108083</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>513110</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>121594</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AA1B7A-1083-4258-836B-08DC56BC452B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="16121716" y="7645257"/>
-          <a:ext cx="445851" cy="13511"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>108381</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>122479</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>554232</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>135990</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D801700-7FB9-429E-84FF-0B0470841B8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="25881098" y="5506175"/>
-          <a:ext cx="445851" cy="13511"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>41119</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>69022</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>579782</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>108381</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA39FAF9-4AF5-44B9-9B49-93A79973AF42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="16095576" y="6529457"/>
-          <a:ext cx="2968228" cy="39359"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>27604</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>579782</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>121889</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202813CC-2450-4DF1-B2E4-3C8EFCEB3E3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="18511626" y="6543261"/>
-          <a:ext cx="552178" cy="1115802"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>13805</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>69021</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>565978</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814DCAA0-83AE-4837-937C-1507D78BCC12}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13638696" y="5452717"/>
-          <a:ext cx="7840869" cy="13805"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>80768</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>67258</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>526619</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>80769</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82564BE-FB6F-4315-BA75-893A59856E67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="23423920" y="5450954"/>
-          <a:ext cx="445851" cy="13511"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>94285</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>94870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>540136</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>108381</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0A0813-C53B-4E39-B556-A3D203FBC155}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="35585263" y="5478566"/>
-          <a:ext cx="445851" cy="13511"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>13804</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>151847</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>565978</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8B6428-4E75-4160-80CE-CC87060A522B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="20927391" y="5535543"/>
-          <a:ext cx="552174" cy="1049131"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>94577</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>81066</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>540428</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>94577</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D4E256-832B-4E93-A16C-6EF5F67EF743}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="21087677" y="8920266"/>
-          <a:ext cx="445851" cy="13511"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>94870</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>122185</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>540721</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>135696</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7482575-ACBF-4CC3-B662-B9505876D46E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="28297153" y="5505881"/>
-          <a:ext cx="445851" cy="13511"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>80773</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>53456</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>526624</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66967</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24A1AE9-2522-4A89-AF0E-785EFEB66386}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="30712621" y="5437152"/>
-          <a:ext cx="445851" cy="13511"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>135990</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>108379</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>581841</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>121890</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DCF7877-9D4D-4710-A89F-CFE87E19B5FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="33197403" y="5492075"/>
-          <a:ext cx="445851" cy="13511"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>13776</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>94282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>27287</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>134815</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24850057-677E-4240-95C7-20BD9E668359}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="40363885" y="5477978"/>
-          <a:ext cx="1228293" cy="937815"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>541101</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>124636</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D6E3CD-8106-477C-9205-56DE5B97D2C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6397625" y="6969125"/>
-          <a:ext cx="445851" cy="13511"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>110432</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>110432</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>556283</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123943</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64AF54B0-5D3E-44CF-8F2D-8DE4E8E1F48E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8876193" y="6570867"/>
-          <a:ext cx="445851" cy="13511"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>55217</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>579783</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>151848</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056CA911-7F21-4E9D-87E0-2FAE05356141}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6391413" y="6446630"/>
-          <a:ext cx="35145870" cy="3754783"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3250,7 +1907,7 @@
   <dimension ref="B1:BA50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3260,29 +1917,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:24" x14ac:dyDescent="0.35">
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
     </row>
     <row r="2" spans="4:24" x14ac:dyDescent="0.35">
       <c r="D2" s="2"/>
@@ -3441,64 +2098,64 @@
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="9">
         <v>5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <v>7</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="9">
         <v>3</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="9">
         <v>10</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="9">
         <v>5</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="9">
         <v>7</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="9">
         <v>6</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="9">
         <v>8</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="9">
         <v>5</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="9">
         <v>4</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="9">
         <v>3</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="9">
         <v>5</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="9">
         <v>4</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="9">
         <v>5</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="9">
         <v>7</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="9">
         <v>4</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="9">
         <v>2</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="9">
         <v>2</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="9">
         <v>1</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3506,38 +2163,38 @@
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
     </row>
     <row r="9" spans="4:24" x14ac:dyDescent="0.35">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="4:24" x14ac:dyDescent="0.35">
-      <c r="D10" s="7"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
@@ -3572,16 +2229,16 @@
     <row r="26" spans="20:22" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="20:22" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="20:22" x14ac:dyDescent="0.35">
-      <c r="T29" s="7" t="s">
+      <c r="T29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="6">
+      <c r="U29" s="9">
         <v>8</v>
       </c>
-      <c r="V29" s="6"/>
+      <c r="V29" s="9"/>
     </row>
     <row r="30" spans="20:22" x14ac:dyDescent="0.35">
-      <c r="T30" s="7"/>
+      <c r="T30" s="10"/>
       <c r="U30" s="1">
         <v>22</v>
       </c>
@@ -3604,61 +2261,61 @@
       <c r="AB35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AC35" s="8">
+      <c r="AC35" s="6">
         <v>0</v>
       </c>
-      <c r="AD35" s="9"/>
+      <c r="AD35" s="7"/>
       <c r="AF35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AG35" s="8">
+      <c r="AG35" s="6">
         <v>0</v>
       </c>
-      <c r="AH35" s="9"/>
+      <c r="AH35" s="7"/>
       <c r="AJ35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AK35" s="8">
+      <c r="AK35" s="6">
         <v>0</v>
       </c>
-      <c r="AL35" s="9"/>
+      <c r="AL35" s="7"/>
       <c r="AN35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AO35" s="8">
+      <c r="AO35" s="6">
         <v>0</v>
       </c>
-      <c r="AP35" s="9"/>
+      <c r="AP35" s="7"/>
       <c r="AR35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AS35" s="8">
+      <c r="AS35" s="6">
         <v>0</v>
       </c>
-      <c r="AT35" s="9"/>
-      <c r="AV35" s="11" t="s">
+      <c r="AT35" s="7"/>
+      <c r="AV35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AW35" s="6">
+      <c r="AW35" s="9">
         <v>0</v>
       </c>
-      <c r="AX35" s="6"/>
+      <c r="AX35" s="9"/>
     </row>
     <row r="36" spans="2:53" x14ac:dyDescent="0.35">
       <c r="H36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="6">
         <v>20</v>
       </c>
-      <c r="J36" s="9"/>
+      <c r="J36" s="7"/>
       <c r="P36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="Q36" s="6">
         <v>8</v>
       </c>
-      <c r="R36" s="9"/>
+      <c r="R36" s="7"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="1">
         <v>35</v>
@@ -3694,7 +2351,7 @@
       <c r="AT36" s="1">
         <v>53</v>
       </c>
-      <c r="AV36" s="11"/>
+      <c r="AV36" s="8"/>
       <c r="AW36" s="1">
         <v>53</v>
       </c>
@@ -3804,45 +2461,45 @@
       <c r="D42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="6">
         <v>0</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="7"/>
       <c r="H42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="6">
         <v>0</v>
       </c>
-      <c r="J42" s="9"/>
+      <c r="J42" s="7"/>
       <c r="L42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="6">
         <v>0</v>
       </c>
-      <c r="N42" s="9"/>
+      <c r="N42" s="7"/>
       <c r="P42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="6">
         <v>0</v>
       </c>
-      <c r="R42" s="9"/>
+      <c r="R42" s="7"/>
       <c r="T42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="8">
+      <c r="U42" s="6">
         <v>0</v>
       </c>
-      <c r="V42" s="9"/>
+      <c r="V42" s="7"/>
       <c r="X42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Y42" s="8">
+      <c r="Y42" s="6">
         <v>0</v>
       </c>
-      <c r="Z42" s="9"/>
+      <c r="Z42" s="7"/>
       <c r="BA42" s="1">
         <v>54</v>
       </c>
@@ -3954,38 +2611,38 @@
       <c r="T48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U48" s="8">
+      <c r="U48" s="6">
         <v>5</v>
       </c>
-      <c r="V48" s="9"/>
+      <c r="V48" s="7"/>
       <c r="X48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Y48" s="8">
+      <c r="Y48" s="6">
         <v>5</v>
       </c>
-      <c r="Z48" s="9"/>
+      <c r="Z48" s="7"/>
       <c r="AB48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AC48" s="8">
+      <c r="AC48" s="6">
         <v>5</v>
       </c>
-      <c r="AD48" s="9"/>
+      <c r="AD48" s="7"/>
       <c r="AF48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AG48" s="8">
+      <c r="AG48" s="6">
         <v>5</v>
       </c>
-      <c r="AH48" s="9"/>
+      <c r="AH48" s="7"/>
       <c r="AJ48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AK48" s="8">
+      <c r="AK48" s="6">
         <v>5</v>
       </c>
-      <c r="AL48" s="9"/>
+      <c r="AL48" s="7"/>
     </row>
     <row r="49" spans="20:38" x14ac:dyDescent="0.35">
       <c r="T49" s="5"/>
@@ -4073,25 +2730,16 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AV35:AV36"/>
-    <mergeCell ref="AW35:AX35"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AO35:AP35"/>
-    <mergeCell ref="AS35:AT35"/>
-    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="T29:T30"/>
     <mergeCell ref="U29:V29"/>
     <mergeCell ref="Q36:R36"/>
@@ -4108,875 +2756,25 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A30A98-5F69-48BA-AA59-B2B8A9F56529}">
-  <dimension ref="B1:BQ58"/>
-  <sheetViews>
-    <sheetView topLeftCell="D24" zoomScale="48" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BK29" sqref="BK29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="4:24" x14ac:dyDescent="0.35">
-      <c r="D1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-    </row>
-    <row r="2" spans="4:24" x14ac:dyDescent="0.35">
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="4:24" x14ac:dyDescent="0.35">
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="4:24" x14ac:dyDescent="0.35">
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="4:24" x14ac:dyDescent="0.35">
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6">
-        <v>7</v>
-      </c>
-      <c r="G5" s="6">
-        <v>6</v>
-      </c>
-      <c r="H5" s="6">
-        <v>8</v>
-      </c>
-      <c r="I5" s="6">
-        <v>10</v>
-      </c>
-      <c r="J5" s="6">
-        <v>12</v>
-      </c>
-      <c r="K5" s="6">
-        <v>15</v>
-      </c>
-      <c r="L5" s="6">
-        <v>10</v>
-      </c>
-      <c r="M5" s="6">
-        <v>8</v>
-      </c>
-      <c r="N5" s="6">
-        <v>7</v>
-      </c>
-      <c r="O5" s="6">
-        <v>5</v>
-      </c>
-      <c r="P5" s="6">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>5</v>
-      </c>
-      <c r="R5" s="6">
-        <v>8</v>
-      </c>
-      <c r="S5" s="6">
-        <v>7</v>
-      </c>
-      <c r="T5" s="6">
-        <v>10</v>
-      </c>
-      <c r="U5" s="6">
-        <v>5</v>
-      </c>
-      <c r="V5" s="6">
-        <v>3</v>
-      </c>
-      <c r="W5" s="6">
-        <v>4</v>
-      </c>
-      <c r="X5" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="4:24" x14ac:dyDescent="0.35">
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-    </row>
-    <row r="9" spans="4:24" x14ac:dyDescent="0.35">
-      <c r="D9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="4:24" x14ac:dyDescent="0.35">
-      <c r="D10" s="7"/>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="4:24" x14ac:dyDescent="0.35">
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="12:66" x14ac:dyDescent="0.35">
-      <c r="L30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="8">
-        <v>13</v>
-      </c>
-      <c r="N30" s="9"/>
-      <c r="T30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="U30" s="8">
-        <v>7</v>
-      </c>
-      <c r="V30" s="9"/>
-      <c r="AJ30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="9"/>
-      <c r="AN30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="9"/>
-      <c r="AR30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="9"/>
-      <c r="AV30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX30" s="9"/>
-      <c r="AZ30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA30" s="8">
-        <v>0</v>
-      </c>
-      <c r="BB30" s="9"/>
-      <c r="BD30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="BE30" s="6">
-        <v>0</v>
-      </c>
-      <c r="BF30" s="6"/>
-      <c r="BH30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BI30" s="8">
-        <v>0</v>
-      </c>
-      <c r="BJ30" s="9"/>
-      <c r="BL30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BM30" s="8">
-        <v>0</v>
-      </c>
-      <c r="BN30" s="9"/>
-    </row>
-    <row r="31" spans="12:66" x14ac:dyDescent="0.35">
-      <c r="L31" s="5"/>
-      <c r="M31" s="1">
-        <v>10</v>
-      </c>
-      <c r="N31" s="1">
-        <v>22</v>
-      </c>
-      <c r="T31" s="5"/>
-      <c r="U31" s="1">
-        <v>28</v>
-      </c>
-      <c r="V31" s="1">
-        <v>43</v>
-      </c>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="1">
-        <v>56</v>
-      </c>
-      <c r="AL31" s="1">
-        <v>61</v>
-      </c>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="1">
-        <v>61</v>
-      </c>
-      <c r="AP31" s="1">
-        <v>69</v>
-      </c>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="1">
-        <v>69</v>
-      </c>
-      <c r="AT31" s="1">
-        <v>76</v>
-      </c>
-      <c r="AV31" s="5"/>
-      <c r="AW31" s="1">
-        <v>76</v>
-      </c>
-      <c r="AX31" s="1">
-        <v>86</v>
-      </c>
-      <c r="AZ31" s="5"/>
-      <c r="BA31" s="1">
-        <v>86</v>
-      </c>
-      <c r="BB31" s="1">
-        <v>91</v>
-      </c>
-      <c r="BD31" s="11"/>
-      <c r="BE31" s="1">
-        <v>91</v>
-      </c>
-      <c r="BF31" s="1">
-        <v>94</v>
-      </c>
-      <c r="BH31" s="5"/>
-      <c r="BI31" s="1">
-        <v>94</v>
-      </c>
-      <c r="BJ31" s="1">
-        <v>98</v>
-      </c>
-      <c r="BL31" s="5"/>
-      <c r="BM31" s="1">
-        <v>98</v>
-      </c>
-      <c r="BN31" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="12:66" x14ac:dyDescent="0.35">
-      <c r="L32" s="1">
-        <v>12</v>
-      </c>
-      <c r="M32" s="1">
-        <v>23</v>
-      </c>
-      <c r="N32" s="1">
-        <v>35</v>
-      </c>
-      <c r="T32" s="1">
-        <v>15</v>
-      </c>
-      <c r="U32" s="1">
-        <v>35</v>
-      </c>
-      <c r="V32" s="1">
-        <v>50</v>
-      </c>
-      <c r="AJ32" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK32" s="1">
-        <v>56</v>
-      </c>
-      <c r="AL32" s="1">
-        <v>61</v>
-      </c>
-      <c r="AN32" s="1">
-        <v>8</v>
-      </c>
-      <c r="AO32" s="1">
-        <v>61</v>
-      </c>
-      <c r="AP32" s="1">
-        <v>69</v>
-      </c>
-      <c r="AR32" s="1">
-        <v>7</v>
-      </c>
-      <c r="AS32" s="1">
-        <v>69</v>
-      </c>
-      <c r="AT32" s="1">
-        <v>76</v>
-      </c>
-      <c r="AV32" s="1">
-        <v>10</v>
-      </c>
-      <c r="AW32" s="1">
-        <v>76</v>
-      </c>
-      <c r="AX32" s="1">
-        <v>86</v>
-      </c>
-      <c r="AZ32" s="1">
-        <v>5</v>
-      </c>
-      <c r="BA32" s="1">
-        <v>86</v>
-      </c>
-      <c r="BB32" s="1">
-        <v>91</v>
-      </c>
-      <c r="BD32" s="1">
-        <v>3</v>
-      </c>
-      <c r="BE32" s="1">
-        <v>91</v>
-      </c>
-      <c r="BF32" s="1">
-        <v>94</v>
-      </c>
-      <c r="BH32" s="1">
-        <v>4</v>
-      </c>
-      <c r="BI32" s="1">
-        <v>94</v>
-      </c>
-      <c r="BJ32" s="1">
-        <v>98</v>
-      </c>
-      <c r="BL32" s="1">
-        <v>2</v>
-      </c>
-      <c r="BM32" s="1">
-        <v>98</v>
-      </c>
-      <c r="BN32" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="H36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" s="8">
-        <v>0</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="L36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M36" s="8">
-        <v>0</v>
-      </c>
-      <c r="N36" s="9"/>
-      <c r="P36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>0</v>
-      </c>
-      <c r="R36" s="6"/>
-      <c r="T36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U36" s="8">
-        <v>0</v>
-      </c>
-      <c r="V36" s="9"/>
-      <c r="X36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y36" s="8">
-        <v>8</v>
-      </c>
-      <c r="Z36" s="9"/>
-      <c r="AF36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="9"/>
-      <c r="BQ36" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="H37" s="5"/>
-      <c r="I37" s="1">
-        <v>4</v>
-      </c>
-      <c r="J37" s="1">
-        <v>10</v>
-      </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="1">
-        <v>10</v>
-      </c>
-      <c r="N37" s="1">
-        <v>18</v>
-      </c>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="1">
-        <v>18</v>
-      </c>
-      <c r="R37" s="1">
-        <v>28</v>
-      </c>
-      <c r="T37" s="5"/>
-      <c r="U37" s="1">
-        <v>28</v>
-      </c>
-      <c r="V37" s="1">
-        <v>38</v>
-      </c>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="1">
-        <v>38</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>42</v>
-      </c>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="1">
-        <v>50</v>
-      </c>
-      <c r="AH37" s="1">
-        <v>56</v>
-      </c>
-      <c r="BQ37" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="H38" s="1">
-        <v>6</v>
-      </c>
-      <c r="I38" s="1">
-        <v>4</v>
-      </c>
-      <c r="J38" s="1">
-        <v>10</v>
-      </c>
-      <c r="L38" s="1">
-        <v>8</v>
-      </c>
-      <c r="M38" s="1">
-        <v>10</v>
-      </c>
-      <c r="N38" s="1">
-        <v>18</v>
-      </c>
-      <c r="P38" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>18</v>
-      </c>
-      <c r="R38" s="1">
-        <v>28</v>
-      </c>
-      <c r="T38" s="1">
-        <v>10</v>
-      </c>
-      <c r="U38" s="1">
-        <v>28</v>
-      </c>
-      <c r="V38" s="1">
-        <v>38</v>
-      </c>
-      <c r="X38" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>46</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>50</v>
-      </c>
-      <c r="AF38" s="1">
-        <v>6</v>
-      </c>
-      <c r="AG38" s="1">
-        <v>50</v>
-      </c>
-      <c r="AH38" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="8">
-        <v>0</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="X42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y42" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="9"/>
-      <c r="AB42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC42" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="9"/>
-    </row>
-    <row r="43" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>4</v>
-      </c>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="1">
-        <v>38</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>45</v>
-      </c>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="1">
-        <v>45</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="D44" s="1">
-        <v>4</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>4</v>
-      </c>
-      <c r="X44" s="1">
-        <v>7</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>38</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>45</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>5</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>45</v>
-      </c>
-      <c r="AD44" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I56" s="8">
-        <v>89</v>
-      </c>
-      <c r="J56" s="9"/>
-    </row>
-    <row r="57" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H57" s="5"/>
-      <c r="I57" s="1">
-        <v>4</v>
-      </c>
-      <c r="J57" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H58" s="1">
-        <v>7</v>
-      </c>
-      <c r="I58" s="1">
-        <v>93</v>
-      </c>
-      <c r="J58" s="1">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="D1:X1"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AV35:AV36"/>
+    <mergeCell ref="AW35:AX35"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AO35:AP35"/>
+    <mergeCell ref="AS35:AT35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I36:J36"/>
     <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="BM30:BN30"/>
-    <mergeCell ref="BA30:BB30"/>
-    <mergeCell ref="BD30:BD31"/>
-    <mergeCell ref="BE30:BF30"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="AO30:AP30"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AS30:AT30"/>
-    <mergeCell ref="AW30:AX30"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="BI30:BJ30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
